--- a/Exam_simulations/exam_2/3.xlsx
+++ b/Exam_simulations/exam_2/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\Exam_simulations\exam_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95391A4D-FEA6-4586-B9D7-183D5A3F752F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E027D858-242B-4C11-BB0E-5588C3D166D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-7515" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Движение товаров" sheetId="1" r:id="rId1"/>
@@ -856,8 +856,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G2399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2400" sqref="H2400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34611,7 +34611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1468" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1468">
         <v>1467</v>
       </c>
@@ -47767,7 +47767,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2040" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2040" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2040">
         <v>2039</v>
       </c>
@@ -54207,7 +54207,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2320">
         <v>2319</v>
       </c>
@@ -56049,6 +56049,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G2399" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2021" month="9" day="11" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="M11"/>
@@ -57634,7 +57639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F115B39D-9504-4CD9-90B0-C6E86B7F45F7}">
   <dimension ref="C2:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
